--- a/jpcore-r4/feature/swg1-capablitystatement/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/feature/swg1-capablitystatement/StructureDefinition-jp-medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="278">
   <si>
     <t>Property</t>
   </si>
@@ -775,7 +775,7 @@
     <t>この薬剤中にどの程度の物質が含まれているかを示す。たとえば、1錠あたり250mgなど。これは分子が250mgで分母が1錠である比率を表現している。</t>
   </si>
   <si>
-    <t>Ratioデータ型は2つの数字の関係で示され、Quantityや一般的な単位で適切に表現できない関係を表すときにのみ用いられる。分母の値が「1」で固定されているような値であれば、QuantityがRatioの代わりに用いられるべきである。</t>
+    <t>1回に使用される薬剤料を示すため、denominatorは1回に固定される。</t>
   </si>
   <si>
     <t>Medication.ingredient.strength.id</t>
@@ -839,6 +839,14 @@
   </si>
   <si>
     <t>パッケージ量</t>
+  </si>
+  <si>
+    <t>&lt;valueQuantity xmlns="http://hl7.org/fhir"&gt;
+  &lt;value value="1"/&gt;
+  &lt;unit value="回"/&gt;
+  &lt;system value="http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationUnitMERIT9_VS"/&gt;
+  &lt;code value="TIME"/&gt;
+&lt;/valueQuantity&gt;</t>
   </si>
   <si>
     <t>Ratio.denominator</t>
@@ -4491,7 +4499,7 @@
         <v>78</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>78</v>
@@ -4530,7 +4538,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4559,10 +4567,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4588,10 +4596,10 @@
         <v>195</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4642,7 +4650,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -4660,7 +4668,7 @@
         <v>174</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -4671,10 +4679,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4783,10 +4791,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4897,10 +4905,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5013,10 +5021,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5042,13 +5050,13 @@
         <v>201</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5098,7 +5106,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5122,15 +5130,15 @@
         <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5153,13 +5161,13 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5210,7 +5218,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5228,13 +5236,13 @@
         <v>174</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg1-capablitystatement/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/feature/swg1-capablitystatement/StructureDefinition-jp-medication.xlsx
@@ -4496,10 +4496,10 @@
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>78</v>
